--- a/datasheets/compare/compare_algs_S-1.xlsx
+++ b/datasheets/compare/compare_algs_S-1.xlsx
@@ -452,1102 +452,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19355</v>
+        <v>21654</v>
       </c>
       <c r="B2" t="n">
-        <v>42052</v>
+        <v>48484</v>
       </c>
       <c r="C2" t="n">
-        <v>211</v>
+        <v>48614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37363</v>
+        <v>31345</v>
       </c>
       <c r="B3" t="n">
-        <v>79167</v>
+        <v>66999</v>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>67137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33098</v>
+        <v>42197</v>
       </c>
       <c r="B4" t="n">
-        <v>71117</v>
+        <v>88883</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>89039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-40581</v>
+        <v>-15375</v>
       </c>
       <c r="B5" t="n">
-        <v>85357</v>
+        <v>35141</v>
       </c>
       <c r="C5" t="n">
-        <v>182</v>
+        <v>35237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-30963</v>
+        <v>26110</v>
       </c>
       <c r="B6" t="n">
-        <v>65899</v>
+        <v>55394</v>
       </c>
       <c r="C6" t="n">
-        <v>540</v>
+        <v>55586</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40225</v>
+        <v>29788</v>
       </c>
       <c r="B7" t="n">
-        <v>84638</v>
+        <v>63770</v>
       </c>
       <c r="C7" t="n">
-        <v>384</v>
+        <v>63894</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>47554</v>
+        <v>-38779</v>
       </c>
       <c r="B8" t="n">
-        <v>98220</v>
+        <v>80913</v>
       </c>
       <c r="C8" t="n">
-        <v>161</v>
+        <v>81001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-42484</v>
+        <v>-35238</v>
       </c>
       <c r="B9" t="n">
-        <v>89401</v>
+        <v>74479</v>
       </c>
       <c r="C9" t="n">
-        <v>162</v>
+        <v>74625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29248</v>
+        <v>17864</v>
       </c>
       <c r="B10" t="n">
-        <v>62208</v>
+        <v>40162</v>
       </c>
       <c r="C10" t="n">
-        <v>597</v>
+        <v>40292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-19079</v>
+        <v>39391</v>
       </c>
       <c r="B11" t="n">
-        <v>42137</v>
+        <v>83548</v>
       </c>
       <c r="C11" t="n">
-        <v>461</v>
+        <v>83652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-36979</v>
+        <v>35568</v>
       </c>
       <c r="B12" t="n">
-        <v>78037</v>
+        <v>74166</v>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>74364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14905</v>
+        <v>35102</v>
       </c>
       <c r="B13" t="n">
-        <v>33454</v>
+        <v>74942</v>
       </c>
       <c r="C13" t="n">
-        <v>299</v>
+        <v>75006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30271</v>
+        <v>41089</v>
       </c>
       <c r="B14" t="n">
-        <v>65064</v>
+        <v>84974</v>
       </c>
       <c r="C14" t="n">
-        <v>535</v>
+        <v>85088</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>48482</v>
+        <v>34577</v>
       </c>
       <c r="B15" t="n">
-        <v>101461</v>
+        <v>73181</v>
       </c>
       <c r="C15" t="n">
-        <v>567</v>
+        <v>73273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>42705</v>
+        <v>31255</v>
       </c>
       <c r="B16" t="n">
-        <v>89047</v>
+        <v>66632</v>
       </c>
       <c r="C16" t="n">
-        <v>473</v>
+        <v>66716</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43104</v>
+        <v>-41312</v>
       </c>
       <c r="B17" t="n">
-        <v>89410</v>
+        <v>85497</v>
       </c>
       <c r="C17" t="n">
-        <v>150</v>
+        <v>85589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-29924</v>
+        <v>28453</v>
       </c>
       <c r="B18" t="n">
-        <v>62939</v>
+        <v>60932</v>
       </c>
       <c r="C18" t="n">
-        <v>400</v>
+        <v>61062</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30907</v>
+        <v>18350</v>
       </c>
       <c r="B19" t="n">
-        <v>65547</v>
+        <v>41288</v>
       </c>
       <c r="C19" t="n">
-        <v>101</v>
+        <v>41430</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>36054</v>
+        <v>11373</v>
       </c>
       <c r="B20" t="n">
-        <v>75848</v>
+        <v>25901</v>
       </c>
       <c r="C20" t="n">
-        <v>338</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>24088</v>
+        <v>46639</v>
       </c>
       <c r="B21" t="n">
-        <v>53006</v>
+        <v>97423</v>
       </c>
       <c r="C21" t="n">
-        <v>436</v>
+        <v>97553</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21466</v>
+        <v>40499</v>
       </c>
       <c r="B22" t="n">
-        <v>46649</v>
+        <v>85410</v>
       </c>
       <c r="C22" t="n">
-        <v>401</v>
+        <v>85450</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24650</v>
+        <v>-34235</v>
       </c>
       <c r="B23" t="n">
-        <v>53630</v>
+        <v>72975</v>
       </c>
       <c r="C23" t="n">
-        <v>313</v>
+        <v>73117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36839</v>
+        <v>-33496</v>
       </c>
       <c r="B24" t="n">
-        <v>78139</v>
+        <v>69735</v>
       </c>
       <c r="C24" t="n">
-        <v>377</v>
+        <v>69829</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25138</v>
+        <v>17387</v>
       </c>
       <c r="B25" t="n">
-        <v>54345</v>
+        <v>38261</v>
       </c>
       <c r="C25" t="n">
-        <v>361</v>
+        <v>38459</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>46783</v>
+        <v>20556</v>
       </c>
       <c r="B26" t="n">
-        <v>98653</v>
+        <v>44617</v>
       </c>
       <c r="C26" t="n">
-        <v>102</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>44304</v>
+        <v>42173</v>
       </c>
       <c r="B27" t="n">
-        <v>92830</v>
+        <v>87547</v>
       </c>
       <c r="C27" t="n">
-        <v>351</v>
+        <v>87635</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>48665</v>
+        <v>28179</v>
       </c>
       <c r="B28" t="n">
-        <v>101004</v>
+        <v>60347</v>
       </c>
       <c r="C28" t="n">
-        <v>614</v>
+        <v>60453</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31666</v>
+        <v>34589</v>
       </c>
       <c r="B29" t="n">
-        <v>67926</v>
+        <v>73724</v>
       </c>
       <c r="C29" t="n">
-        <v>96</v>
+        <v>73818</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14652</v>
+        <v>28264</v>
       </c>
       <c r="B30" t="n">
-        <v>34177</v>
+        <v>60525</v>
       </c>
       <c r="C30" t="n">
-        <v>446</v>
+        <v>60571</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-38985</v>
+        <v>-19631</v>
       </c>
       <c r="B31" t="n">
-        <v>81261</v>
+        <v>42853</v>
       </c>
       <c r="C31" t="n">
-        <v>196</v>
+        <v>42967</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>46223</v>
+        <v>33561</v>
       </c>
       <c r="B32" t="n">
-        <v>96532</v>
+        <v>70662</v>
       </c>
       <c r="C32" t="n">
-        <v>148</v>
+        <v>70748</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-28646</v>
+        <v>38645</v>
       </c>
       <c r="B33" t="n">
-        <v>61283</v>
+        <v>81427</v>
       </c>
       <c r="C33" t="n">
-        <v>306</v>
+        <v>81547</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-43884</v>
+        <v>24409</v>
       </c>
       <c r="B34" t="n">
-        <v>91515</v>
+        <v>52822</v>
       </c>
       <c r="C34" t="n">
-        <v>240</v>
+        <v>53012</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38583</v>
+        <v>40342</v>
       </c>
       <c r="B35" t="n">
-        <v>81756</v>
+        <v>84623</v>
       </c>
       <c r="C35" t="n">
-        <v>252</v>
+        <v>84767</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>46390</v>
+        <v>26384</v>
       </c>
       <c r="B36" t="n">
-        <v>97040</v>
+        <v>56982</v>
       </c>
       <c r="C36" t="n">
-        <v>403</v>
+        <v>57160</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>44778</v>
+        <v>-20111</v>
       </c>
       <c r="B37" t="n">
-        <v>93964</v>
+        <v>43445</v>
       </c>
       <c r="C37" t="n">
-        <v>511</v>
+        <v>43509</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>32068</v>
+        <v>42219</v>
       </c>
       <c r="B38" t="n">
-        <v>68582</v>
+        <v>88168</v>
       </c>
       <c r="C38" t="n">
-        <v>64</v>
+        <v>88366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-29885</v>
+        <v>47560</v>
       </c>
       <c r="B39" t="n">
-        <v>64373</v>
+        <v>98868</v>
       </c>
       <c r="C39" t="n">
-        <v>407</v>
+        <v>98956</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>29644</v>
+        <v>-48881</v>
       </c>
       <c r="B40" t="n">
-        <v>64054</v>
+        <v>102447</v>
       </c>
       <c r="C40" t="n">
-        <v>316</v>
+        <v>102585</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>35044</v>
+        <v>45691</v>
       </c>
       <c r="B41" t="n">
-        <v>74984</v>
+        <v>94588</v>
       </c>
       <c r="C41" t="n">
-        <v>336</v>
+        <v>94690</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-40233</v>
+        <v>35304</v>
       </c>
       <c r="B42" t="n">
-        <v>84429</v>
+        <v>75540</v>
       </c>
       <c r="C42" t="n">
-        <v>273</v>
+        <v>75696</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>28096</v>
+        <v>51416</v>
       </c>
       <c r="B43" t="n">
-        <v>60142</v>
+        <v>106188</v>
       </c>
       <c r="C43" t="n">
-        <v>369</v>
+        <v>106264</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-40154</v>
+        <v>40348</v>
       </c>
       <c r="B44" t="n">
-        <v>84309</v>
+        <v>84797</v>
       </c>
       <c r="C44" t="n">
-        <v>203</v>
+        <v>84871</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45142</v>
+        <v>-24504</v>
       </c>
       <c r="B45" t="n">
-        <v>93463</v>
+        <v>52791</v>
       </c>
       <c r="C45" t="n">
-        <v>397</v>
+        <v>52853</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>31244</v>
+        <v>36868</v>
       </c>
       <c r="B46" t="n">
-        <v>66500</v>
+        <v>77903</v>
       </c>
       <c r="C46" t="n">
-        <v>367</v>
+        <v>78015</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43089</v>
+        <v>-21216</v>
       </c>
       <c r="B47" t="n">
-        <v>90220</v>
+        <v>45477</v>
       </c>
       <c r="C47" t="n">
-        <v>139</v>
+        <v>45627</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18024</v>
+        <v>43239</v>
       </c>
       <c r="B48" t="n">
-        <v>39335</v>
+        <v>91398</v>
       </c>
       <c r="C48" t="n">
-        <v>516</v>
+        <v>91472</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>32675</v>
+        <v>40877</v>
       </c>
       <c r="B49" t="n">
-        <v>68306</v>
+        <v>86008</v>
       </c>
       <c r="C49" t="n">
-        <v>228</v>
+        <v>86158</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>45629</v>
+        <v>20545</v>
       </c>
       <c r="B50" t="n">
-        <v>94652</v>
+        <v>46016</v>
       </c>
       <c r="C50" t="n">
-        <v>161</v>
+        <v>46198</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>24510</v>
+        <v>-46785</v>
       </c>
       <c r="B51" t="n">
-        <v>53242</v>
+        <v>97333</v>
       </c>
       <c r="C51" t="n">
-        <v>437</v>
+        <v>97353</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>48109</v>
+        <v>25473</v>
       </c>
       <c r="B52" t="n">
-        <v>99770</v>
+        <v>55145</v>
       </c>
       <c r="C52" t="n">
-        <v>511</v>
+        <v>55309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>49562</v>
+        <v>29307</v>
       </c>
       <c r="B53" t="n">
-        <v>102303</v>
+        <v>62439</v>
       </c>
       <c r="C53" t="n">
-        <v>278</v>
+        <v>62581</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-17119</v>
+        <v>27161</v>
       </c>
       <c r="B54" t="n">
-        <v>37329</v>
+        <v>58158</v>
       </c>
       <c r="C54" t="n">
-        <v>171</v>
+        <v>58282</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>39612</v>
+        <v>-44759</v>
       </c>
       <c r="B55" t="n">
-        <v>84165</v>
+        <v>94245</v>
       </c>
       <c r="C55" t="n">
-        <v>409</v>
+        <v>94375</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15502</v>
+        <v>28327</v>
       </c>
       <c r="B56" t="n">
-        <v>34690</v>
+        <v>60200</v>
       </c>
       <c r="C56" t="n">
-        <v>379</v>
+        <v>60320</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>31128</v>
+        <v>16374</v>
       </c>
       <c r="B57" t="n">
-        <v>65554</v>
+        <v>36305</v>
       </c>
       <c r="C57" t="n">
-        <v>574</v>
+        <v>36401</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>42303</v>
+        <v>31445</v>
       </c>
       <c r="B58" t="n">
-        <v>87923</v>
+        <v>66919</v>
       </c>
       <c r="C58" t="n">
-        <v>553</v>
+        <v>67001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-27722</v>
+        <v>46581</v>
       </c>
       <c r="B59" t="n">
-        <v>58547</v>
+        <v>98092</v>
       </c>
       <c r="C59" t="n">
-        <v>452</v>
+        <v>98296</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-16514</v>
+        <v>26087</v>
       </c>
       <c r="B60" t="n">
-        <v>36195</v>
+        <v>57256</v>
       </c>
       <c r="C60" t="n">
-        <v>363</v>
+        <v>57402</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>25258</v>
+        <v>45470</v>
       </c>
       <c r="B61" t="n">
-        <v>55054</v>
+        <v>94706</v>
       </c>
       <c r="C61" t="n">
-        <v>260</v>
+        <v>94850</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>19664</v>
+        <v>29155</v>
       </c>
       <c r="B62" t="n">
-        <v>42966</v>
+        <v>62664</v>
       </c>
       <c r="C62" t="n">
-        <v>141</v>
+        <v>62756</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-19206</v>
+        <v>32266</v>
       </c>
       <c r="B63" t="n">
-        <v>42983</v>
+        <v>67830</v>
       </c>
       <c r="C63" t="n">
-        <v>559</v>
+        <v>68022</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-42824</v>
+        <v>40065</v>
       </c>
       <c r="B64" t="n">
-        <v>89139</v>
+        <v>84140</v>
       </c>
       <c r="C64" t="n">
-        <v>467</v>
+        <v>84206</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>39356</v>
+        <v>34157</v>
       </c>
       <c r="B65" t="n">
-        <v>82980</v>
+        <v>72902</v>
       </c>
       <c r="C65" t="n">
-        <v>119</v>
+        <v>73064</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>29291</v>
+        <v>48153</v>
       </c>
       <c r="B66" t="n">
-        <v>63316</v>
+        <v>100306</v>
       </c>
       <c r="C66" t="n">
-        <v>379</v>
+        <v>100394</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-44376</v>
+        <v>31531</v>
       </c>
       <c r="B67" t="n">
-        <v>92233</v>
+        <v>66299</v>
       </c>
       <c r="C67" t="n">
-        <v>363</v>
+        <v>66449</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>40074</v>
+        <v>17982</v>
       </c>
       <c r="B68" t="n">
-        <v>84210</v>
+        <v>40170</v>
       </c>
       <c r="C68" t="n">
-        <v>472</v>
+        <v>40288</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-28205</v>
+        <v>47110</v>
       </c>
       <c r="B69" t="n">
-        <v>59649</v>
+        <v>98346</v>
       </c>
       <c r="C69" t="n">
-        <v>336</v>
+        <v>98446</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>25611</v>
+        <v>-40187</v>
       </c>
       <c r="B70" t="n">
-        <v>55025</v>
+        <v>84321</v>
       </c>
       <c r="C70" t="n">
-        <v>292</v>
+        <v>84505</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21659</v>
+        <v>32752</v>
       </c>
       <c r="B71" t="n">
-        <v>47813</v>
+        <v>70042</v>
       </c>
       <c r="C71" t="n">
-        <v>572</v>
+        <v>70182</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>22835</v>
+        <v>48512</v>
       </c>
       <c r="B72" t="n">
-        <v>49430</v>
+        <v>100058</v>
       </c>
       <c r="C72" t="n">
-        <v>354</v>
+        <v>100184</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15550</v>
+        <v>42531</v>
       </c>
       <c r="B73" t="n">
-        <v>35520</v>
+        <v>88052</v>
       </c>
       <c r="C73" t="n">
-        <v>76</v>
+        <v>88120</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-17038</v>
+        <v>39764</v>
       </c>
       <c r="B74" t="n">
-        <v>38781</v>
+        <v>82224</v>
       </c>
       <c r="C74" t="n">
-        <v>512</v>
+        <v>82388</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>46076</v>
+        <v>34929</v>
       </c>
       <c r="B75" t="n">
-        <v>96370</v>
+        <v>74400</v>
       </c>
       <c r="C75" t="n">
-        <v>267</v>
+        <v>74498</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>46817</v>
+        <v>-42903</v>
       </c>
       <c r="B76" t="n">
-        <v>98352</v>
+        <v>90123</v>
       </c>
       <c r="C76" t="n">
-        <v>679</v>
+        <v>90243</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>22364</v>
+        <v>16375</v>
       </c>
       <c r="B77" t="n">
-        <v>49140</v>
+        <v>37858</v>
       </c>
       <c r="C77" t="n">
-        <v>604</v>
+        <v>37924</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>46099</v>
+        <v>22077</v>
       </c>
       <c r="B78" t="n">
-        <v>95968</v>
+        <v>48922</v>
       </c>
       <c r="C78" t="n">
-        <v>24</v>
+        <v>49034</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16852</v>
+        <v>27032</v>
       </c>
       <c r="B79" t="n">
-        <v>37044</v>
+        <v>57534</v>
       </c>
       <c r="C79" t="n">
-        <v>340</v>
+        <v>57624</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>42075</v>
+        <v>23439</v>
       </c>
       <c r="B80" t="n">
-        <v>89278</v>
+        <v>51482</v>
       </c>
       <c r="C80" t="n">
-        <v>87</v>
+        <v>51612</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-14791</v>
+        <v>24466</v>
       </c>
       <c r="B81" t="n">
-        <v>33499</v>
+        <v>52444</v>
       </c>
       <c r="C81" t="n">
-        <v>59</v>
+        <v>52544</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>47694</v>
+        <v>-33792</v>
       </c>
       <c r="B82" t="n">
-        <v>99650</v>
+        <v>71821</v>
       </c>
       <c r="C82" t="n">
-        <v>499</v>
+        <v>72019</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-51478</v>
+        <v>29368</v>
       </c>
       <c r="B83" t="n">
-        <v>107593</v>
+        <v>61719</v>
       </c>
       <c r="C83" t="n">
-        <v>578</v>
+        <v>61793</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>41198</v>
+        <v>25050</v>
       </c>
       <c r="B84" t="n">
-        <v>85630</v>
+        <v>54574</v>
       </c>
       <c r="C84" t="n">
-        <v>141</v>
+        <v>54704</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>39696</v>
+        <v>45114</v>
       </c>
       <c r="B85" t="n">
-        <v>82392</v>
+        <v>93574</v>
       </c>
       <c r="C85" t="n">
-        <v>456</v>
+        <v>93750</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>28318</v>
+        <v>-28346</v>
       </c>
       <c r="B86" t="n">
-        <v>61131</v>
+        <v>61029</v>
       </c>
       <c r="C86" t="n">
-        <v>440</v>
+        <v>61193</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>21538</v>
+        <v>29809</v>
       </c>
       <c r="B87" t="n">
-        <v>46465</v>
+        <v>63924</v>
       </c>
       <c r="C87" t="n">
-        <v>311</v>
+        <v>64052</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>26599</v>
+        <v>46571</v>
       </c>
       <c r="B88" t="n">
-        <v>56512</v>
+        <v>97882</v>
       </c>
       <c r="C88" t="n">
-        <v>565</v>
+        <v>97984</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>32405</v>
+        <v>29311</v>
       </c>
       <c r="B89" t="n">
-        <v>68948</v>
+        <v>62580</v>
       </c>
       <c r="C89" t="n">
-        <v>177</v>
+        <v>62672</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-30054</v>
+        <v>-28007</v>
       </c>
       <c r="B90" t="n">
-        <v>63555</v>
+        <v>59153</v>
       </c>
       <c r="C90" t="n">
-        <v>291</v>
+        <v>59235</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-19570</v>
+        <v>19641</v>
       </c>
       <c r="B91" t="n">
-        <v>42649</v>
+        <v>44056</v>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>20415</v>
+        <v>33947</v>
       </c>
       <c r="B92" t="n">
-        <v>45345</v>
+        <v>71569</v>
       </c>
       <c r="C92" t="n">
-        <v>127</v>
+        <v>71641</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>20522</v>
+        <v>48254</v>
       </c>
       <c r="B93" t="n">
-        <v>44106</v>
+        <v>100673</v>
       </c>
       <c r="C93" t="n">
-        <v>355</v>
+        <v>100771</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>35929</v>
+        <v>25866</v>
       </c>
       <c r="B94" t="n">
-        <v>75580</v>
+        <v>54869</v>
       </c>
       <c r="C94" t="n">
-        <v>450</v>
+        <v>54995</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>36918</v>
+        <v>-29388</v>
       </c>
       <c r="B95" t="n">
-        <v>76938</v>
+        <v>63085</v>
       </c>
       <c r="C95" t="n">
-        <v>412</v>
+        <v>63175</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>40675</v>
+        <v>49655</v>
       </c>
       <c r="B96" t="n">
-        <v>85360</v>
+        <v>102629</v>
       </c>
       <c r="C96" t="n">
-        <v>237</v>
+        <v>102827</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>42283</v>
+        <v>37581</v>
       </c>
       <c r="B97" t="n">
-        <v>87564</v>
+        <v>79850</v>
       </c>
       <c r="C97" t="n">
-        <v>294</v>
+        <v>79902</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>36546</v>
+        <v>25278</v>
       </c>
       <c r="B98" t="n">
-        <v>76237</v>
+        <v>55212</v>
       </c>
       <c r="C98" t="n">
-        <v>410</v>
+        <v>55316</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>23858</v>
+        <v>46092</v>
       </c>
       <c r="B99" t="n">
-        <v>52314</v>
+        <v>95125</v>
       </c>
       <c r="C99" t="n">
-        <v>374</v>
+        <v>95255</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>26178</v>
+        <v>41025</v>
       </c>
       <c r="B100" t="n">
-        <v>56488</v>
+        <v>86328</v>
       </c>
       <c r="C100" t="n">
-        <v>267</v>
+        <v>86424</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-34233</v>
+        <v>-22582</v>
       </c>
       <c r="B101" t="n">
-        <v>71491</v>
+        <v>48763</v>
       </c>
       <c r="C101" t="n">
-        <v>395</v>
+        <v>48873</v>
       </c>
     </row>
   </sheetData>

--- a/datasheets/compare/compare_algs_S-1.xlsx
+++ b/datasheets/compare/compare_algs_S-1.xlsx
@@ -452,1102 +452,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21654</v>
+        <v>43723</v>
       </c>
       <c r="B2" t="n">
-        <v>48484</v>
+        <v>48467</v>
       </c>
       <c r="C2" t="n">
-        <v>48614</v>
+        <v>48647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31345</v>
+        <v>95645</v>
       </c>
       <c r="B3" t="n">
-        <v>66999</v>
+        <v>98913</v>
       </c>
       <c r="C3" t="n">
-        <v>67137</v>
+        <v>99047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42197</v>
+        <v>83820</v>
       </c>
       <c r="B4" t="n">
-        <v>88883</v>
+        <v>87758</v>
       </c>
       <c r="C4" t="n">
-        <v>89039</v>
+        <v>87914</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-15375</v>
+        <v>35954</v>
       </c>
       <c r="B5" t="n">
-        <v>35141</v>
+        <v>40338</v>
       </c>
       <c r="C5" t="n">
-        <v>35237</v>
+        <v>40452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26110</v>
+        <v>34754</v>
       </c>
       <c r="B6" t="n">
-        <v>55394</v>
+        <v>38462</v>
       </c>
       <c r="C6" t="n">
-        <v>55586</v>
+        <v>38660</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29788</v>
+        <v>89193</v>
       </c>
       <c r="B7" t="n">
-        <v>63770</v>
+        <v>93399</v>
       </c>
       <c r="C7" t="n">
-        <v>63894</v>
+        <v>93527</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-38779</v>
+        <v>48791</v>
       </c>
       <c r="B8" t="n">
-        <v>80913</v>
+        <v>52371</v>
       </c>
       <c r="C8" t="n">
-        <v>81001</v>
+        <v>52447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-35238</v>
+        <v>61115</v>
       </c>
       <c r="B9" t="n">
-        <v>74479</v>
+        <v>65619</v>
       </c>
       <c r="C9" t="n">
-        <v>74625</v>
+        <v>65719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17864</v>
+        <v>57107</v>
       </c>
       <c r="B10" t="n">
-        <v>40162</v>
+        <v>60949</v>
       </c>
       <c r="C10" t="n">
-        <v>40292</v>
+        <v>61035</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39391</v>
+        <v>80078</v>
       </c>
       <c r="B11" t="n">
-        <v>83548</v>
+        <v>84246</v>
       </c>
       <c r="C11" t="n">
-        <v>83652</v>
+        <v>84404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35568</v>
+        <v>86526</v>
       </c>
       <c r="B12" t="n">
-        <v>74166</v>
+        <v>91052</v>
       </c>
       <c r="C12" t="n">
-        <v>74364</v>
+        <v>91128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>35102</v>
+        <v>64857</v>
       </c>
       <c r="B13" t="n">
-        <v>74942</v>
+        <v>68783</v>
       </c>
       <c r="C13" t="n">
-        <v>75006</v>
+        <v>68891</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>41089</v>
+        <v>48981</v>
       </c>
       <c r="B14" t="n">
-        <v>84974</v>
+        <v>52110</v>
       </c>
       <c r="C14" t="n">
-        <v>85088</v>
+        <v>52192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>34577</v>
+        <v>90695</v>
       </c>
       <c r="B15" t="n">
-        <v>73181</v>
+        <v>94887</v>
       </c>
       <c r="C15" t="n">
-        <v>73273</v>
+        <v>95035</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>31255</v>
+        <v>44200</v>
       </c>
       <c r="B16" t="n">
-        <v>66632</v>
+        <v>48836</v>
       </c>
       <c r="C16" t="n">
-        <v>66716</v>
+        <v>49008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-41312</v>
+        <v>77054</v>
       </c>
       <c r="B17" t="n">
-        <v>85497</v>
+        <v>81771</v>
       </c>
       <c r="C17" t="n">
-        <v>85589</v>
+        <v>81849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>28453</v>
+        <v>78134</v>
       </c>
       <c r="B18" t="n">
-        <v>60932</v>
+        <v>82768</v>
       </c>
       <c r="C18" t="n">
-        <v>61062</v>
+        <v>82924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18350</v>
+        <v>41351</v>
       </c>
       <c r="B19" t="n">
-        <v>41288</v>
+        <v>44447</v>
       </c>
       <c r="C19" t="n">
-        <v>41430</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11373</v>
+        <v>72915</v>
       </c>
       <c r="B20" t="n">
-        <v>25901</v>
+        <v>76723</v>
       </c>
       <c r="C20" t="n">
-        <v>26073</v>
+        <v>76873</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46639</v>
+        <v>43229</v>
       </c>
       <c r="B21" t="n">
-        <v>97423</v>
+        <v>47191</v>
       </c>
       <c r="C21" t="n">
-        <v>97553</v>
+        <v>47355</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40499</v>
+        <v>91002</v>
       </c>
       <c r="B22" t="n">
-        <v>85410</v>
+        <v>95048</v>
       </c>
       <c r="C22" t="n">
-        <v>85450</v>
+        <v>95206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-34235</v>
+        <v>67148</v>
       </c>
       <c r="B23" t="n">
-        <v>72975</v>
+        <v>72139</v>
       </c>
       <c r="C23" t="n">
-        <v>73117</v>
+        <v>72291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-33496</v>
+        <v>27152</v>
       </c>
       <c r="B24" t="n">
-        <v>69735</v>
+        <v>30883</v>
       </c>
       <c r="C24" t="n">
-        <v>69829</v>
+        <v>30985</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17387</v>
+        <v>78734</v>
       </c>
       <c r="B25" t="n">
-        <v>38261</v>
+        <v>82038</v>
       </c>
       <c r="C25" t="n">
-        <v>38459</v>
+        <v>82242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20556</v>
+        <v>63525</v>
       </c>
       <c r="B26" t="n">
-        <v>44617</v>
+        <v>68163</v>
       </c>
       <c r="C26" t="n">
-        <v>44761</v>
+        <v>68279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>42173</v>
+        <v>74682</v>
       </c>
       <c r="B27" t="n">
-        <v>87547</v>
+        <v>78564</v>
       </c>
       <c r="C27" t="n">
-        <v>87635</v>
+        <v>78656</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28179</v>
+        <v>92491</v>
       </c>
       <c r="B28" t="n">
-        <v>60347</v>
+        <v>95699</v>
       </c>
       <c r="C28" t="n">
-        <v>60453</v>
+        <v>95755</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>34589</v>
+        <v>41153</v>
       </c>
       <c r="B29" t="n">
-        <v>73724</v>
+        <v>44188</v>
       </c>
       <c r="C29" t="n">
-        <v>73818</v>
+        <v>44342</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28264</v>
+        <v>57239</v>
       </c>
       <c r="B30" t="n">
-        <v>60525</v>
+        <v>61915</v>
       </c>
       <c r="C30" t="n">
-        <v>60571</v>
+        <v>61981</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-19631</v>
+        <v>68832</v>
       </c>
       <c r="B31" t="n">
-        <v>42853</v>
+        <v>73964</v>
       </c>
       <c r="C31" t="n">
-        <v>42967</v>
+        <v>74088</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>33561</v>
+        <v>79105</v>
       </c>
       <c r="B32" t="n">
-        <v>70662</v>
+        <v>83560</v>
       </c>
       <c r="C32" t="n">
-        <v>70748</v>
+        <v>83748</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>38645</v>
+        <v>98883</v>
       </c>
       <c r="B33" t="n">
-        <v>81427</v>
+        <v>102217</v>
       </c>
       <c r="C33" t="n">
-        <v>81547</v>
+        <v>102297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>24409</v>
+        <v>54083</v>
       </c>
       <c r="B34" t="n">
-        <v>52822</v>
+        <v>57967</v>
       </c>
       <c r="C34" t="n">
-        <v>53012</v>
+        <v>58003</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>40342</v>
+        <v>59129</v>
       </c>
       <c r="B35" t="n">
-        <v>84623</v>
+        <v>63031</v>
       </c>
       <c r="C35" t="n">
-        <v>84767</v>
+        <v>63137</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>26384</v>
+        <v>68578</v>
       </c>
       <c r="B36" t="n">
-        <v>56982</v>
+        <v>72676</v>
       </c>
       <c r="C36" t="n">
-        <v>57160</v>
+        <v>72844</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20111</v>
+        <v>53385</v>
       </c>
       <c r="B37" t="n">
-        <v>43445</v>
+        <v>56458</v>
       </c>
       <c r="C37" t="n">
-        <v>43509</v>
+        <v>56652</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>42219</v>
+        <v>76579</v>
       </c>
       <c r="B38" t="n">
-        <v>88168</v>
+        <v>79821</v>
       </c>
       <c r="C38" t="n">
-        <v>88366</v>
+        <v>79911</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>47560</v>
+        <v>90182</v>
       </c>
       <c r="B39" t="n">
-        <v>98868</v>
+        <v>93854</v>
       </c>
       <c r="C39" t="n">
-        <v>98956</v>
+        <v>93922</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-48881</v>
+        <v>38516</v>
       </c>
       <c r="B40" t="n">
-        <v>102447</v>
+        <v>42523</v>
       </c>
       <c r="C40" t="n">
-        <v>102585</v>
+        <v>42575</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45691</v>
+        <v>52847</v>
       </c>
       <c r="B41" t="n">
-        <v>94588</v>
+        <v>55707</v>
       </c>
       <c r="C41" t="n">
-        <v>94690</v>
+        <v>55875</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>35304</v>
+        <v>42205</v>
       </c>
       <c r="B42" t="n">
-        <v>75540</v>
+        <v>46495</v>
       </c>
       <c r="C42" t="n">
-        <v>75696</v>
+        <v>46595</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>51416</v>
+        <v>82602</v>
       </c>
       <c r="B43" t="n">
-        <v>106188</v>
+        <v>85976</v>
       </c>
       <c r="C43" t="n">
-        <v>106264</v>
+        <v>86140</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>40348</v>
+        <v>73769</v>
       </c>
       <c r="B44" t="n">
-        <v>84797</v>
+        <v>78528</v>
       </c>
       <c r="C44" t="n">
-        <v>84871</v>
+        <v>78654</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-24504</v>
+        <v>50046</v>
       </c>
       <c r="B45" t="n">
-        <v>52791</v>
+        <v>53316</v>
       </c>
       <c r="C45" t="n">
-        <v>52853</v>
+        <v>53402</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>36868</v>
+        <v>38664</v>
       </c>
       <c r="B46" t="n">
-        <v>77903</v>
+        <v>42404</v>
       </c>
       <c r="C46" t="n">
-        <v>78015</v>
+        <v>42556</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-21216</v>
+        <v>77382</v>
       </c>
       <c r="B47" t="n">
-        <v>45477</v>
+        <v>81316</v>
       </c>
       <c r="C47" t="n">
-        <v>45627</v>
+        <v>81404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43239</v>
+        <v>87643</v>
       </c>
       <c r="B48" t="n">
-        <v>91398</v>
+        <v>91218</v>
       </c>
       <c r="C48" t="n">
-        <v>91472</v>
+        <v>91300</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>40877</v>
+        <v>41790</v>
       </c>
       <c r="B49" t="n">
-        <v>86008</v>
+        <v>45084</v>
       </c>
       <c r="C49" t="n">
-        <v>86158</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20545</v>
+        <v>60053</v>
       </c>
       <c r="B50" t="n">
-        <v>46016</v>
+        <v>64231</v>
       </c>
       <c r="C50" t="n">
-        <v>46198</v>
+        <v>64353</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-46785</v>
+        <v>40903</v>
       </c>
       <c r="B51" t="n">
-        <v>97333</v>
+        <v>44053</v>
       </c>
       <c r="C51" t="n">
-        <v>97353</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25473</v>
+        <v>91055</v>
       </c>
       <c r="B52" t="n">
-        <v>55145</v>
+        <v>95089</v>
       </c>
       <c r="C52" t="n">
-        <v>55309</v>
+        <v>95165</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>29307</v>
+        <v>50534</v>
       </c>
       <c r="B53" t="n">
-        <v>62439</v>
+        <v>54930</v>
       </c>
       <c r="C53" t="n">
-        <v>62581</v>
+        <v>55120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27161</v>
+        <v>61882</v>
       </c>
       <c r="B54" t="n">
-        <v>58158</v>
+        <v>66979</v>
       </c>
       <c r="C54" t="n">
-        <v>58282</v>
+        <v>67077</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-44759</v>
+        <v>49804</v>
       </c>
       <c r="B55" t="n">
-        <v>94245</v>
+        <v>53623</v>
       </c>
       <c r="C55" t="n">
-        <v>94375</v>
+        <v>53795</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28327</v>
+        <v>69057</v>
       </c>
       <c r="B56" t="n">
-        <v>60200</v>
+        <v>72649</v>
       </c>
       <c r="C56" t="n">
-        <v>60320</v>
+        <v>72735</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16374</v>
+        <v>37618</v>
       </c>
       <c r="B57" t="n">
-        <v>36305</v>
+        <v>42538</v>
       </c>
       <c r="C57" t="n">
-        <v>36401</v>
+        <v>42606</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>31445</v>
+        <v>25465</v>
       </c>
       <c r="B58" t="n">
-        <v>66919</v>
+        <v>30347</v>
       </c>
       <c r="C58" t="n">
-        <v>67001</v>
+        <v>30511</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>46581</v>
+        <v>93551</v>
       </c>
       <c r="B59" t="n">
-        <v>98092</v>
+        <v>98361</v>
       </c>
       <c r="C59" t="n">
-        <v>98296</v>
+        <v>98445</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>26087</v>
+        <v>70849</v>
       </c>
       <c r="B60" t="n">
-        <v>57256</v>
+        <v>74988</v>
       </c>
       <c r="C60" t="n">
-        <v>57402</v>
+        <v>75052</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>45470</v>
+        <v>60599</v>
       </c>
       <c r="B61" t="n">
-        <v>94706</v>
+        <v>64704</v>
       </c>
       <c r="C61" t="n">
-        <v>94850</v>
+        <v>64854</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>29155</v>
+        <v>71543</v>
       </c>
       <c r="B62" t="n">
-        <v>62664</v>
+        <v>75903</v>
       </c>
       <c r="C62" t="n">
-        <v>62756</v>
+        <v>75985</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>32266</v>
+        <v>47755</v>
       </c>
       <c r="B63" t="n">
-        <v>67830</v>
+        <v>52359</v>
       </c>
       <c r="C63" t="n">
-        <v>68022</v>
+        <v>52453</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>40065</v>
+        <v>59386</v>
       </c>
       <c r="B64" t="n">
-        <v>84140</v>
+        <v>62761</v>
       </c>
       <c r="C64" t="n">
-        <v>84206</v>
+        <v>62853</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>34157</v>
+        <v>79106</v>
       </c>
       <c r="B65" t="n">
-        <v>72902</v>
+        <v>83054</v>
       </c>
       <c r="C65" t="n">
-        <v>73064</v>
+        <v>83174</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>48153</v>
+        <v>89253</v>
       </c>
       <c r="B66" t="n">
-        <v>100306</v>
+        <v>93420</v>
       </c>
       <c r="C66" t="n">
-        <v>100394</v>
+        <v>93554</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>31531</v>
+        <v>81174</v>
       </c>
       <c r="B67" t="n">
-        <v>66299</v>
+        <v>84670</v>
       </c>
       <c r="C67" t="n">
-        <v>66449</v>
+        <v>84758</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>17982</v>
+        <v>83963</v>
       </c>
       <c r="B68" t="n">
-        <v>40170</v>
+        <v>87497</v>
       </c>
       <c r="C68" t="n">
-        <v>40288</v>
+        <v>87723</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>47110</v>
+        <v>50584</v>
       </c>
       <c r="B69" t="n">
-        <v>98346</v>
+        <v>54314</v>
       </c>
       <c r="C69" t="n">
-        <v>98446</v>
+        <v>54428</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-40187</v>
+        <v>73794</v>
       </c>
       <c r="B70" t="n">
-        <v>84321</v>
+        <v>77480</v>
       </c>
       <c r="C70" t="n">
-        <v>84505</v>
+        <v>77620</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>32752</v>
+        <v>35264</v>
       </c>
       <c r="B71" t="n">
-        <v>70042</v>
+        <v>38316</v>
       </c>
       <c r="C71" t="n">
-        <v>70182</v>
+        <v>38466</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>48512</v>
+        <v>92891</v>
       </c>
       <c r="B72" t="n">
-        <v>100058</v>
+        <v>96049</v>
       </c>
       <c r="C72" t="n">
-        <v>100184</v>
+        <v>96201</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>42531</v>
+        <v>35812</v>
       </c>
       <c r="B73" t="n">
-        <v>88052</v>
+        <v>40590</v>
       </c>
       <c r="C73" t="n">
-        <v>88120</v>
+        <v>40752</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>39764</v>
+        <v>69637</v>
       </c>
       <c r="B74" t="n">
-        <v>82224</v>
+        <v>74380</v>
       </c>
       <c r="C74" t="n">
-        <v>82388</v>
+        <v>74460</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>34929</v>
+        <v>89967</v>
       </c>
       <c r="B75" t="n">
-        <v>74400</v>
+        <v>93544</v>
       </c>
       <c r="C75" t="n">
-        <v>74498</v>
+        <v>93718</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-42903</v>
+        <v>59369</v>
       </c>
       <c r="B76" t="n">
-        <v>90123</v>
+        <v>63467</v>
       </c>
       <c r="C76" t="n">
-        <v>90243</v>
+        <v>63611</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>16375</v>
+        <v>73303</v>
       </c>
       <c r="B77" t="n">
-        <v>37858</v>
+        <v>77046</v>
       </c>
       <c r="C77" t="n">
-        <v>37924</v>
+        <v>77196</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>22077</v>
+        <v>85284</v>
       </c>
       <c r="B78" t="n">
-        <v>48922</v>
+        <v>88584</v>
       </c>
       <c r="C78" t="n">
-        <v>49034</v>
+        <v>88670</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>27032</v>
+        <v>32901</v>
       </c>
       <c r="B79" t="n">
-        <v>57534</v>
+        <v>36704</v>
       </c>
       <c r="C79" t="n">
-        <v>57624</v>
+        <v>36816</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>23439</v>
+        <v>48283</v>
       </c>
       <c r="B80" t="n">
-        <v>51482</v>
+        <v>52489</v>
       </c>
       <c r="C80" t="n">
-        <v>51612</v>
+        <v>52607</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>24466</v>
+        <v>86901</v>
       </c>
       <c r="B81" t="n">
-        <v>52444</v>
+        <v>90126</v>
       </c>
       <c r="C81" t="n">
-        <v>52544</v>
+        <v>90220</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-33792</v>
+        <v>32326</v>
       </c>
       <c r="B82" t="n">
-        <v>71821</v>
+        <v>36674</v>
       </c>
       <c r="C82" t="n">
-        <v>72019</v>
+        <v>36752</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>29368</v>
+        <v>56445</v>
       </c>
       <c r="B83" t="n">
-        <v>61719</v>
+        <v>60025</v>
       </c>
       <c r="C83" t="n">
-        <v>61793</v>
+        <v>60185</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>25050</v>
+        <v>42647</v>
       </c>
       <c r="B84" t="n">
-        <v>54574</v>
+        <v>46143</v>
       </c>
       <c r="C84" t="n">
-        <v>54704</v>
+        <v>46249</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>45114</v>
+        <v>49065</v>
       </c>
       <c r="B85" t="n">
-        <v>93574</v>
+        <v>53787</v>
       </c>
       <c r="C85" t="n">
-        <v>93750</v>
+        <v>53863</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-28346</v>
+        <v>83737</v>
       </c>
       <c r="B86" t="n">
-        <v>61029</v>
+        <v>87203</v>
       </c>
       <c r="C86" t="n">
-        <v>61193</v>
+        <v>87287</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>29809</v>
+        <v>86198</v>
       </c>
       <c r="B87" t="n">
-        <v>63924</v>
+        <v>90850</v>
       </c>
       <c r="C87" t="n">
-        <v>64052</v>
+        <v>90900</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>46571</v>
+        <v>55070</v>
       </c>
       <c r="B88" t="n">
-        <v>97882</v>
+        <v>59556</v>
       </c>
       <c r="C88" t="n">
-        <v>97984</v>
+        <v>59668</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>29311</v>
+        <v>31450</v>
       </c>
       <c r="B89" t="n">
-        <v>62580</v>
+        <v>35190</v>
       </c>
       <c r="C89" t="n">
-        <v>62672</v>
+        <v>35240</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-28007</v>
+        <v>38967</v>
       </c>
       <c r="B90" t="n">
-        <v>59153</v>
+        <v>43110</v>
       </c>
       <c r="C90" t="n">
-        <v>59235</v>
+        <v>43218</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>19641</v>
+        <v>62265</v>
       </c>
       <c r="B91" t="n">
-        <v>44056</v>
+        <v>67107</v>
       </c>
       <c r="C91" t="n">
-        <v>44172</v>
+        <v>67269</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>33947</v>
+        <v>59009</v>
       </c>
       <c r="B92" t="n">
-        <v>71569</v>
+        <v>63581</v>
       </c>
       <c r="C92" t="n">
-        <v>71641</v>
+        <v>63709</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>48254</v>
+        <v>56331</v>
       </c>
       <c r="B93" t="n">
-        <v>100673</v>
+        <v>60192</v>
       </c>
       <c r="C93" t="n">
-        <v>100771</v>
+        <v>60302</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>25866</v>
+        <v>50724</v>
       </c>
       <c r="B94" t="n">
-        <v>54869</v>
+        <v>54195</v>
       </c>
       <c r="C94" t="n">
-        <v>54995</v>
+        <v>54327</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-29388</v>
+        <v>36514</v>
       </c>
       <c r="B95" t="n">
-        <v>63085</v>
+        <v>40710</v>
       </c>
       <c r="C95" t="n">
-        <v>63175</v>
+        <v>40874</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>49655</v>
+        <v>101316</v>
       </c>
       <c r="B96" t="n">
-        <v>102629</v>
+        <v>104816</v>
       </c>
       <c r="C96" t="n">
-        <v>102827</v>
+        <v>104888</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>37581</v>
+        <v>75100</v>
       </c>
       <c r="B97" t="n">
-        <v>79850</v>
+        <v>78168</v>
       </c>
       <c r="C97" t="n">
-        <v>79902</v>
+        <v>78296</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>25278</v>
+        <v>38645</v>
       </c>
       <c r="B98" t="n">
-        <v>55212</v>
+        <v>41508</v>
       </c>
       <c r="C98" t="n">
-        <v>55316</v>
+        <v>41618</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>46092</v>
+        <v>85269</v>
       </c>
       <c r="B99" t="n">
-        <v>95125</v>
+        <v>88768</v>
       </c>
       <c r="C99" t="n">
-        <v>95255</v>
+        <v>88962</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>41025</v>
+        <v>76723</v>
       </c>
       <c r="B100" t="n">
-        <v>86328</v>
+        <v>80575</v>
       </c>
       <c r="C100" t="n">
-        <v>86424</v>
+        <v>80771</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-22582</v>
+        <v>89513</v>
       </c>
       <c r="B101" t="n">
-        <v>48763</v>
+        <v>93304</v>
       </c>
       <c r="C101" t="n">
-        <v>48873</v>
+        <v>93390</v>
       </c>
     </row>
   </sheetData>
